--- a/video/videos.xlsx
+++ b/video/videos.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0B41CB7C-8BAF-4C46-BAAD-34A0507C570E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{25CBE334-A800-534E-8B98-C3E0D45D8C65}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{25CBE334-A800-534E-8B98-C3E0D45D8C65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,8 +100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -134,8 +134,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -145,10 +145,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="mm:ss;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="mm:ss;@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,10 +170,10 @@
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{553C0E90-35F9-034B-A8A5-93C39FC46701}" name="Room" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{553C0E90-35F9-034B-A8A5-93C39FC46701}" name="Room" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{D5417446-6B4F-B746-9041-567985FF4CEB}" name="Game"/>
     <tableColumn id="2" xr3:uid="{1F53F7AE-81F1-F04B-8683-96056C7F79C6}" name="File"/>
-    <tableColumn id="3" xr3:uid="{02444A8D-ABFE-734C-A1CB-71D21561CCB1}" name="Time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{02444A8D-ABFE-734C-A1CB-71D21561CCB1}" name="Time" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{F6D57960-373B-E043-9AF4-5B997C22351E}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
